--- a/AE_log.xlsx
+++ b/AE_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardo/Desktop/HDA/Human_Data_Analytics_Project_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDD34C0-5396-1B48-964D-7CD8B12CC3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF1C0E-94C1-4240-BF42-4281C3DDF8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{977BA35E-8A42-F74C-8581-DC44286DA253}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>1.1</t>
   </si>
@@ -109,93 +109,18 @@
     <t>1C-MP-1C-MP - 1D</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>LSTM</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1LSTM </t>
-  </si>
-  <si>
-    <t>1.3.2</t>
-  </si>
-  <si>
-    <t>2LSTM</t>
-  </si>
-  <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.4.1</t>
-  </si>
-  <si>
-    <t>2LSTM - 1D</t>
-  </si>
-  <si>
-    <t>GRU</t>
-  </si>
-  <si>
-    <t>1GRU</t>
-  </si>
-  <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>2GRU</t>
-  </si>
-  <si>
-    <t>1.4.3</t>
-  </si>
-  <si>
-    <t>2GRU - 1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 </t>
-  </si>
-  <si>
     <t>LSTM + CONV</t>
   </si>
   <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
-    <t>1.5.2</t>
-  </si>
-  <si>
     <t>1C - 1LSTM</t>
   </si>
   <si>
     <t>2C - 1LSTM</t>
   </si>
   <si>
-    <t>1.5.3</t>
-  </si>
-  <si>
     <t>2C - 1LSTM - 1D</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>ATTENTION</t>
-  </si>
-  <si>
-    <t>1.6.1</t>
-  </si>
-  <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
-    <t>1.6.3</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
@@ -311,6 +236,9 @@
   </si>
   <si>
     <t>4D + Dr0.5</t>
+  </si>
+  <si>
+    <t>3C</t>
   </si>
 </sst>
 </file>
@@ -662,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592A272C-7AC8-2E41-8B8A-4F2A492ACDDC}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,434 +602,283 @@
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/AE_log.xlsx
+++ b/AE_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardo/Desktop/HDA/Human_Data_Analytics_Project_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF1C0E-94C1-4240-BF42-4281C3DDF8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C214D8-7E15-5D4F-AACB-62B399833D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{977BA35E-8A42-F74C-8581-DC44286DA253}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>1.1</t>
   </si>
@@ -79,114 +79,15 @@
     <t xml:space="preserve">1-DIM CONVOLUTIONAL </t>
   </si>
   <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>2C - 1D</t>
-  </si>
-  <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>1C-MP-1C-MP - 1D</t>
-  </si>
-  <si>
-    <t>LSTM + CONV</t>
-  </si>
-  <si>
-    <t>1C - 1LSTM</t>
-  </si>
-  <si>
-    <t>2C - 1LSTM</t>
-  </si>
-  <si>
-    <t>2C - 1LSTM - 1D</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
     <t>STFT</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 </t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">2-DIM CONVOLUTIONAL </t>
   </si>
   <si>
-    <t>2.1.1</t>
-  </si>
-  <si>
-    <t>2.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.3 </t>
-  </si>
-  <si>
-    <t>2.1.4</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>2.2.4</t>
-  </si>
-  <si>
-    <t>2.2.5</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
-    <t>2.3.3</t>
-  </si>
-  <si>
-    <t>2.4.1</t>
-  </si>
-  <si>
-    <t>2.4.2</t>
-  </si>
-  <si>
-    <t>2.4.3</t>
-  </si>
-  <si>
     <t>2-DIM ATTENTION</t>
   </si>
   <si>
@@ -238,7 +139,67 @@
     <t>4D + Dr0.5</t>
   </si>
   <si>
-    <t>3C</t>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>MEL</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>MFCC</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>numero di layer convoluzionali + parametri dei layer</t>
+  </si>
+  <si>
+    <t>code size sia 1Dim che 2Dim 32,64,128; 32x32, …</t>
+  </si>
+  <si>
+    <t>Tuning:</t>
+  </si>
+  <si>
+    <t>activation, learning rate, …</t>
+  </si>
+  <si>
+    <t>MFCC+delta</t>
+  </si>
+  <si>
+    <t>MFCC+deltadelta</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
   </si>
 </sst>
 </file>
@@ -590,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592A272C-7AC8-2E41-8B8A-4F2A492ACDDC}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,7 +563,7 @@
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -610,275 +571,260 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
